--- a/_publications/Publications.xlsx
+++ b/_publications/Publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kylermurphy.github.io\_publications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF3AA70-13B8-4BC3-AD5D-C1EE4B4BC022}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43772E4A-62AC-49FC-AC72-CE080FCC46BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="1905" windowWidth="27465" windowHeight="14070" xr2:uid="{1453CF07-56E4-43BF-A661-31D912F52491}"/>
+    <workbookView xWindow="35220" yWindow="1155" windowWidth="27465" windowHeight="14070" xr2:uid="{1453CF07-56E4-43BF-A661-31D912F52491}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="293">
   <si>
     <t>pub_date</t>
   </si>
@@ -898,6 +898,21 @@
   </si>
   <si>
     <t>Sibeck, D.G. and Murphy, K.R. (2021). Large-Scale Structure and Dynamics of the Magnetosphere. In Magnetospheres in the Solar System (eds R. Maggiolo, N. André, H. Hasegawa, D.T. Welling, Y. Zhang and L.J. Paxton).</t>
+  </si>
+  <si>
+    <t>Ferdousi B., J. Reader, E. Zesta, W. Cramer, K. Murphy, Association of Auroral Streamers and Bursty Bulk Flows during Different States of the Magnetotail: A Case Study, J. Geophys. Res., accepted.</t>
+  </si>
+  <si>
+    <t>Association of Auroral Streamers and Bursty Bulk Flows during Different States of the Magnetotail: A Case Study</t>
+  </si>
+  <si>
+    <t>Shumko et al. 2021, On the Unexpected Correlation Between Relativistic1Electron Microbursts and Patchy Pulsating Aurora, Geophys. Res. Lett., accepted.</t>
+  </si>
+  <si>
+    <t>Ferdousi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shumko </t>
   </si>
 </sst>
 </file>
@@ -1254,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB2684D-F64C-4FEE-BB0F-D334D32C1866}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2813,6 +2828,40 @@
         <v>284</v>
       </c>
     </row>
+    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B79" t="s">
+        <v>289</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F79" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/_publications/Publications.xlsx
+++ b/_publications/Publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kylermurphy.github.io\_publications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43772E4A-62AC-49FC-AC72-CE080FCC46BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE580E4-865D-4AF8-8E6C-4098F9606624}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35220" yWindow="1155" windowWidth="27465" windowHeight="14070" xr2:uid="{1453CF07-56E4-43BF-A661-31D912F52491}"/>
   </bookViews>

--- a/_publications/Publications.xlsx
+++ b/_publications/Publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kylermurphy.github.io\_publications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE580E4-865D-4AF8-8E6C-4098F9606624}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE52133E-2FE4-4F4D-9050-1DC5802BE9F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35220" yWindow="1155" windowWidth="27465" windowHeight="14070" xr2:uid="{1453CF07-56E4-43BF-A661-31D912F52491}"/>
+    <workbookView xWindow="-2190" yWindow="915" windowWidth="27465" windowHeight="14070" xr2:uid="{1453CF07-56E4-43BF-A661-31D912F52491}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
